--- a/biology/Zoologie/Cybaeus_hikidai/Cybaeus_hikidai.xlsx
+++ b/biology/Zoologie/Cybaeus_hikidai/Cybaeus_hikidai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeus hikidai est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeus hikidai est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon[1]. Elle se rencontre sur Okinawa hontō[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel Nansei au Japon. Elle se rencontre sur Okinawa hontō.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 3,20 mm de long sur 2,33 mm et l'abdomen 3,10 mm de long sur 2,43 mm et la carapace de la femelle paratype mesure 2,63 mm de long sur 1,82 mm et l'abdomen 3,15 mm de long sur 2,40 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 3,20 mm de long sur 2,33 mm et l'abdomen 3,10 mm de long sur 2,43 mm et la carapace de la femelle paratype mesure 2,63 mm de long sur 1,82 mm et l'abdomen 3,15 mm de long sur 2,40 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Tsutomu Hikida[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Tsutomu Hikida.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ihara, Koike &amp; Nakano, 2021 : « Integrative taxonomy reveals multiple lineages of the spider genus Cybaeus endemic to the Ryukyu Islands, Japan (Arachnida: Araneae: Cybaeidae). » Invertebrate Systematics, vol. 35, no 2, p. 216-254.</t>
         </is>
